--- a/website/static/home/学習進捗記録_サンプル太郎.yyyy.MM.xlsx
+++ b/website/static/home/学習進捗記録_サンプル太郎.yyyy.MM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsoffice365.sharepoint.com/sites/human_resources/Shared Documents/029_個人ロードマップ(学習進捗)/試行/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N_hashimoto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C7B7D31A-360D-4B79-A28E-B1D694933CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0CF4D9-FF91-44B9-8944-2D75D1983EB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F13EB2-7373-49C4-B84D-1F666BC33346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <sheet name="カメラ" sheetId="14" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5117,37 +5116,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF006600"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006600"/>
@@ -7544,7 +7513,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="カメラ!$B$2:$F$2" spid="_x0000_s1071"/>
+                  <a14:cameraTool cellRange="カメラ!$B$2:$F$2" spid="_x0000_s1073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -24491,7 +24460,8 @@
     <col min="21" max="21" width="8.75" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="2"/>
     <col min="23" max="24" width="9.25" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="25" max="25" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" s="82" customFormat="1" x14ac:dyDescent="0.4">
@@ -24748,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="56">
-        <f>W9/$V$9</f>
+        <f t="shared" ref="Y9:Y12" si="7">ROUNDDOWN(W9/$V$9,3)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="56">
@@ -24756,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3" t="str">
-        <f t="shared" ref="AA9:AA18" si="7">IF(Y9&gt;=0.04,"LEAD",IF(Y9&gt;=0.02,"MID","Jr."))</f>
+        <f t="shared" ref="AA9:AA18" si="8">IF(Y9&gt;=0.04,"LEAD",IF(Y9&gt;=0.02,"MID","Jr."))</f>
         <v>Jr.</v>
       </c>
     </row>
@@ -24837,15 +24807,15 @@
         <v>30</v>
       </c>
       <c r="Y10" s="56">
-        <f t="shared" ref="Y10:Y18" si="8">W10/$V$9</f>
-        <v>4.0349697377269671E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="56">
         <f>X10/$V$9</f>
         <v>4.0349697377269671E-2</v>
       </c>
       <c r="AA10" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LEAD</v>
       </c>
     </row>
@@ -24926,15 +24896,15 @@
         <v>60</v>
       </c>
       <c r="Y11" s="56">
-        <f t="shared" si="8"/>
-        <v>4.0349697377269671E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.04</v>
       </c>
       <c r="Z11" s="56">
         <f>X11/$V$9</f>
         <v>8.0699394754539341E-2</v>
       </c>
       <c r="AA11" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LEAD</v>
       </c>
     </row>
@@ -25015,15 +24985,15 @@
         <v>90</v>
       </c>
       <c r="Y12" s="56">
-        <f t="shared" si="8"/>
-        <v>4.0349697377269671E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.04</v>
       </c>
       <c r="Z12" s="56">
         <f>X12/$V$9</f>
         <v>0.12104909213180901</v>
       </c>
       <c r="AA12" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LEAD</v>
       </c>
     </row>
@@ -25104,15 +25074,15 @@
         <v>119.5</v>
       </c>
       <c r="Y13" s="56">
-        <f t="shared" si="8"/>
-        <v>3.9677202420981841E-2</v>
+        <f>ROUNDDOWN(W13/$V$9,3)</f>
+        <v>3.9E-2</v>
       </c>
       <c r="Z13" s="56">
         <f t="shared" ref="Z13:Z18" si="9">X13/$V$9</f>
         <v>0.16072629455279086</v>
       </c>
       <c r="AA13" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>MID</v>
       </c>
     </row>
@@ -25193,15 +25163,15 @@
         <v>148.5</v>
       </c>
       <c r="Y14" s="56">
-        <f t="shared" si="8"/>
-        <v>3.9004707464694012E-2</v>
+        <f t="shared" ref="Y14:Y18" si="10">ROUNDDOWN(W14/$V$9,3)</f>
+        <v>3.9E-2</v>
       </c>
       <c r="Z14" s="56">
         <f t="shared" si="9"/>
         <v>0.19973100201748487</v>
       </c>
       <c r="AA14" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>MID</v>
       </c>
     </row>
@@ -25282,15 +25252,15 @@
         <v>178.5</v>
       </c>
       <c r="Y15" s="56">
-        <f t="shared" si="8"/>
-        <v>4.0349697377269671E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.04</v>
       </c>
       <c r="Z15" s="56">
         <f t="shared" si="9"/>
         <v>0.24008069939475454</v>
       </c>
       <c r="AA15" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LEAD</v>
       </c>
     </row>
@@ -25371,15 +25341,15 @@
         <v>207.5</v>
       </c>
       <c r="Y16" s="56">
-        <f t="shared" si="8"/>
-        <v>3.9004707464694012E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.9E-2</v>
       </c>
       <c r="Z16" s="56">
         <f t="shared" si="9"/>
         <v>0.27908540685944855</v>
       </c>
       <c r="AA16" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>MID</v>
       </c>
     </row>
@@ -25460,15 +25430,15 @@
         <v>237</v>
       </c>
       <c r="Y17" s="56">
-        <f t="shared" si="8"/>
-        <v>3.9677202420981841E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.9E-2</v>
       </c>
       <c r="Z17" s="56">
         <f t="shared" si="9"/>
         <v>0.31876260928043038</v>
       </c>
       <c r="AA17" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>MID</v>
       </c>
     </row>
@@ -25549,15 +25519,15 @@
         <v>267</v>
       </c>
       <c r="Y18" s="56">
-        <f t="shared" si="8"/>
-        <v>4.0349697377269671E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.04</v>
       </c>
       <c r="Z18" s="56">
         <f t="shared" si="9"/>
         <v>0.35911230665770005</v>
       </c>
       <c r="AA18" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>LEAD</v>
       </c>
     </row>
@@ -25689,7 +25659,7 @@
         <v>0.35911230665770005</v>
       </c>
       <c r="AA23" s="3" t="str">
-        <f t="shared" ref="AA23" si="10">IF(Y23&gt;=0.04,"LEAD",IF(Y23&gt;=0.02,"MID","Jr."))</f>
+        <f t="shared" ref="AA23" si="11">IF(Y23&gt;=0.04,"LEAD",IF(Y23&gt;=0.02,"MID","Jr."))</f>
         <v>Jr.</v>
       </c>
     </row>
@@ -26370,7 +26340,7 @@
       <c r="B24" s="40"/>
       <c r="C24" s="107">
         <f ca="1">TODAY()</f>
-        <v>44577</v>
+        <v>44584</v>
       </c>
       <c r="D24" s="107"/>
       <c r="E24" s="107"/>
@@ -47755,10 +47725,10 @@
   <dimension ref="B1:W159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K154" sqref="K154"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -55495,10 +55465,10 @@
   <dimension ref="B1:W155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29:K32"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
